--- a/dados/Futebol Nordestino.xlsx
+++ b/dados/Futebol Nordestino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Programming/futPE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1613" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B38E6335-279E-4396-867C-BF503AB6C54E}"/>
+  <xr:revisionPtr revIDLastSave="1626" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D627DE6-2680-4AAD-A028-96CFFEB4266D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="903">
   <si>
     <t>id_jogo</t>
   </si>
@@ -2565,9 +2565,6 @@
     <t>Campinense Clube</t>
   </si>
   <si>
-    <t>Campinense</t>
-  </si>
-  <si>
     <t>12 de abril de 1915</t>
   </si>
   <si>
@@ -2580,18 +2577,12 @@
     <t>Santa Cruz Futebol Clube</t>
   </si>
   <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
     <t>3 de fevereiro de 1914</t>
   </si>
   <si>
     <t>Sampaio Corrêa Futebol Clube</t>
   </si>
   <si>
-    <t>Sampaio Corrêa</t>
-  </si>
-  <si>
     <t>25 de março de 1923</t>
   </si>
   <si>
@@ -2749,6 +2740,18 @@
   </si>
   <si>
     <t>Oitavas de final</t>
+  </si>
+  <si>
+    <t>Ceara-CE</t>
+  </si>
+  <si>
+    <t>America-RN</t>
+  </si>
+  <si>
+    <t>Vitoria-BA</t>
+  </si>
+  <si>
+    <t>escudo</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3091,7 @@
   </sheetPr>
   <dimension ref="A1:O858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A104" workbookViewId="0">
       <selection activeCell="G113" sqref="G113:G136"/>
     </sheetView>
   </sheetViews>
@@ -4688,7 +4691,7 @@
         <v>816</v>
       </c>
       <c r="G35" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>348</v>
@@ -4732,7 +4735,7 @@
         <v>819</v>
       </c>
       <c r="G36" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>296</v>
@@ -4750,7 +4753,7 @@
         <v>773</v>
       </c>
       <c r="M36" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N36" t="str">
         <f>_xlfn.CONCAT(I36,"_",L36)</f>
@@ -4776,7 +4779,7 @@
         <v>816</v>
       </c>
       <c r="G37" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>348</v>
@@ -4794,7 +4797,7 @@
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
@@ -4820,7 +4823,7 @@
         <v>819</v>
       </c>
       <c r="G38" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>296</v>
@@ -4838,7 +4841,7 @@
         <v>776</v>
       </c>
       <c r="M38" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N38" t="str">
         <f>_xlfn.CONCAT(I38,"_",L38)</f>
@@ -4864,7 +4867,7 @@
         <v>816</v>
       </c>
       <c r="G39" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>348</v>
@@ -4882,7 +4885,7 @@
         <v>770</v>
       </c>
       <c r="M39" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
@@ -4908,7 +4911,7 @@
         <v>819</v>
       </c>
       <c r="G40" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>296</v>
@@ -4926,7 +4929,7 @@
         <v>783</v>
       </c>
       <c r="M40" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N40" t="str">
         <f>_xlfn.CONCAT(I40,"_",L40)</f>
@@ -4952,7 +4955,7 @@
         <v>816</v>
       </c>
       <c r="G41" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>348</v>
@@ -4970,7 +4973,7 @@
         <v>353</v>
       </c>
       <c r="M41" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
@@ -4996,7 +4999,7 @@
         <v>819</v>
       </c>
       <c r="G42" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>296</v>
@@ -5040,7 +5043,7 @@
         <v>816</v>
       </c>
       <c r="G43" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>348</v>
@@ -5084,7 +5087,7 @@
         <v>818</v>
       </c>
       <c r="G44" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>296</v>
@@ -5102,7 +5105,7 @@
         <v>763</v>
       </c>
       <c r="M44" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
@@ -5128,7 +5131,7 @@
         <v>816</v>
       </c>
       <c r="G45" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>348</v>
@@ -5146,7 +5149,7 @@
         <v>747</v>
       </c>
       <c r="M45" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N45" t="str">
         <f>_xlfn.CONCAT(I45,"_",L45)</f>
@@ -5172,7 +5175,7 @@
         <v>819</v>
       </c>
       <c r="G46" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>296</v>
@@ -5190,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
@@ -5216,7 +5219,7 @@
         <v>816</v>
       </c>
       <c r="G47" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>348</v>
@@ -5234,7 +5237,7 @@
         <v>779</v>
       </c>
       <c r="M47" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N47" t="str">
         <f>_xlfn.CONCAT(I47,"_",L47)</f>
@@ -5260,7 +5263,7 @@
         <v>819</v>
       </c>
       <c r="G48" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>296</v>
@@ -5278,7 +5281,7 @@
         <v>795</v>
       </c>
       <c r="M48" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
@@ -5304,7 +5307,7 @@
         <v>817</v>
       </c>
       <c r="G49" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>348</v>
@@ -5322,7 +5325,7 @@
         <v>794</v>
       </c>
       <c r="M49" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N49" t="str">
         <f>_xlfn.CONCAT(I49,"_",L49)</f>
@@ -5348,7 +5351,7 @@
         <v>819</v>
       </c>
       <c r="G50" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>296</v>
@@ -5410,7 +5413,7 @@
         <v>771</v>
       </c>
       <c r="M51" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
@@ -5454,7 +5457,7 @@
         <v>795</v>
       </c>
       <c r="M52" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
@@ -5542,7 +5545,7 @@
         <v>773</v>
       </c>
       <c r="M54" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
@@ -5586,7 +5589,7 @@
         <v>793</v>
       </c>
       <c r="M55" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="N55" t="str">
         <f>_xlfn.CONCAT(I55,"_",L55)</f>
@@ -5630,7 +5633,7 @@
         <v>747</v>
       </c>
       <c r="M56" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="0"/>
@@ -5674,7 +5677,7 @@
         <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N57" t="str">
         <f>_xlfn.CONCAT(I57,"_",L57)</f>
@@ -5718,7 +5721,7 @@
         <v>770</v>
       </c>
       <c r="M58" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
@@ -5762,7 +5765,7 @@
         <v>770</v>
       </c>
       <c r="M59" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="0"/>
@@ -5806,7 +5809,7 @@
         <v>773</v>
       </c>
       <c r="M60" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="0"/>
@@ -5850,7 +5853,7 @@
         <v>747</v>
       </c>
       <c r="M61" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="N61" t="str">
         <f>_xlfn.CONCAT(I61,"_",L61)</f>
@@ -5894,7 +5897,7 @@
         <v>771</v>
       </c>
       <c r="M62" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
@@ -5938,7 +5941,7 @@
         <v>770</v>
       </c>
       <c r="M63" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="0"/>
@@ -5982,7 +5985,7 @@
         <v>771</v>
       </c>
       <c r="M64" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
@@ -6005,7 +6008,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s">
@@ -6047,7 +6050,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s">
@@ -6089,7 +6092,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s">
@@ -6131,7 +6134,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s">
@@ -6173,7 +6176,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s">
@@ -6215,7 +6218,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s">
@@ -6257,7 +6260,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s">
@@ -6299,7 +6302,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s">
@@ -6341,7 +6344,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s">
@@ -6383,7 +6386,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s">
@@ -6425,7 +6428,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s">
@@ -6467,7 +6470,7 @@
         <v>21</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s">
@@ -6509,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s">
@@ -6551,7 +6554,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s">
@@ -6593,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s">
@@ -6635,7 +6638,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s">
@@ -6677,7 +6680,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s">
@@ -6719,7 +6722,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s">
@@ -6761,7 +6764,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s">
@@ -6803,7 +6806,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s">
@@ -6845,7 +6848,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s">
@@ -6887,7 +6890,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s">
@@ -6929,7 +6932,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s">
@@ -6971,7 +6974,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s">
@@ -7013,7 +7016,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s">
@@ -7055,7 +7058,7 @@
         <v>21</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
@@ -7097,7 +7100,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s">
@@ -7139,7 +7142,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s">
@@ -7181,7 +7184,7 @@
         <v>21</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s">
@@ -7223,7 +7226,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s">
@@ -7265,7 +7268,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s">
@@ -7307,7 +7310,7 @@
         <v>21</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s">
@@ -7349,7 +7352,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s">
@@ -7391,7 +7394,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s">
@@ -7433,7 +7436,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s">
@@ -7475,7 +7478,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s">
@@ -7517,7 +7520,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s">
@@ -7559,7 +7562,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s">
@@ -7601,7 +7604,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s">
@@ -7643,7 +7646,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s">
@@ -7685,7 +7688,7 @@
         <v>21</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s">
@@ -7727,7 +7730,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s">
@@ -7769,7 +7772,7 @@
         <v>21</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s">
@@ -7811,7 +7814,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s">
@@ -7853,7 +7856,7 @@
         <v>21</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s">
@@ -7895,7 +7898,7 @@
         <v>21</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s">
@@ -7937,7 +7940,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s">
@@ -7979,7 +7982,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s">
@@ -8021,11 +8024,11 @@
         <v>21</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G113" t="s">
         <v>368</v>
@@ -8063,11 +8066,11 @@
         <v>21</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G114" t="s">
         <v>368</v>
@@ -8105,11 +8108,11 @@
         <v>21</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G115" t="s">
         <v>368</v>
@@ -8147,11 +8150,11 @@
         <v>21</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G116" t="s">
         <v>368</v>
@@ -8189,11 +8192,11 @@
         <v>21</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G117" t="s">
         <v>368</v>
@@ -8231,11 +8234,11 @@
         <v>21</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G118" t="s">
         <v>368</v>
@@ -8273,11 +8276,11 @@
         <v>21</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G119" t="s">
         <v>368</v>
@@ -8315,11 +8318,11 @@
         <v>21</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G120" t="s">
         <v>368</v>
@@ -8357,11 +8360,11 @@
         <v>21</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G121" t="s">
         <v>368</v>
@@ -8399,11 +8402,11 @@
         <v>21</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G122" t="s">
         <v>368</v>
@@ -8441,11 +8444,11 @@
         <v>21</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G123" t="s">
         <v>368</v>
@@ -8483,11 +8486,11 @@
         <v>21</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G124" t="s">
         <v>368</v>
@@ -8525,11 +8528,11 @@
         <v>21</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G125" t="s">
         <v>368</v>
@@ -8567,11 +8570,11 @@
         <v>21</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G126" t="s">
         <v>368</v>
@@ -8609,11 +8612,11 @@
         <v>21</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G127" t="s">
         <v>368</v>
@@ -8651,11 +8654,11 @@
         <v>21</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G128" t="s">
         <v>368</v>
@@ -8693,11 +8696,11 @@
         <v>21</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G129" t="s">
         <v>368</v>
@@ -8735,11 +8738,11 @@
         <v>21</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G130" t="s">
         <v>368</v>
@@ -8777,11 +8780,11 @@
         <v>21</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G131" t="s">
         <v>368</v>
@@ -8819,11 +8822,11 @@
         <v>21</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G132" t="s">
         <v>368</v>
@@ -8861,11 +8864,11 @@
         <v>21</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G133" t="s">
         <v>368</v>
@@ -8903,11 +8906,11 @@
         <v>21</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G134" t="s">
         <v>368</v>
@@ -8945,11 +8948,11 @@
         <v>21</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G135" t="s">
         <v>368</v>
@@ -8987,11 +8990,11 @@
         <v>21</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G136" t="s">
         <v>368</v>
@@ -9029,7 +9032,7 @@
         <v>21</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E137" s="2"/>
       <c r="G137" t="s">
@@ -9071,7 +9074,7 @@
         <v>21</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E138" s="2"/>
       <c r="G138" t="s">
@@ -21156,7 +21159,7 @@
         <v>15</v>
       </c>
       <c r="M468" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N468" t="str">
         <f t="shared" si="17"/>
@@ -21199,7 +21202,7 @@
         <v>18</v>
       </c>
       <c r="M469" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N469" t="str">
         <f t="shared" si="17"/>
@@ -21242,7 +21245,7 @@
         <v>773</v>
       </c>
       <c r="M470" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N470" t="str">
         <f t="shared" si="17"/>
@@ -21285,7 +21288,7 @@
         <v>793</v>
       </c>
       <c r="M471" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N471" t="str">
         <f t="shared" si="17"/>
@@ -21328,7 +21331,7 @@
         <v>771</v>
       </c>
       <c r="M472" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N472" t="str">
         <f t="shared" si="17"/>
@@ -21371,7 +21374,7 @@
         <v>787</v>
       </c>
       <c r="M473" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N473" t="str">
         <f t="shared" si="17"/>
@@ -21414,7 +21417,7 @@
         <v>763</v>
       </c>
       <c r="M474" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N474" t="str">
         <f t="shared" si="17"/>
@@ -21457,7 +21460,7 @@
         <v>775</v>
       </c>
       <c r="M475" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N475" t="str">
         <f t="shared" si="17"/>
@@ -21500,7 +21503,7 @@
         <v>795</v>
       </c>
       <c r="M476" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N476" t="str">
         <f t="shared" si="17"/>
@@ -21715,7 +21718,7 @@
         <v>19</v>
       </c>
       <c r="M481" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N481" t="str">
         <f t="shared" si="17"/>
@@ -21758,7 +21761,7 @@
         <v>15</v>
       </c>
       <c r="M482" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N482" t="str">
         <f t="shared" si="17"/>
@@ -21844,7 +21847,7 @@
         <v>794</v>
       </c>
       <c r="M484" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N484" t="str">
         <f t="shared" si="17"/>
@@ -21887,7 +21890,7 @@
         <v>771</v>
       </c>
       <c r="M485" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N485" t="str">
         <f t="shared" si="17"/>
@@ -21930,7 +21933,7 @@
         <v>763</v>
       </c>
       <c r="M486" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N486" t="str">
         <f t="shared" si="17"/>
@@ -21973,7 +21976,7 @@
         <v>18</v>
       </c>
       <c r="M487" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N487" t="str">
         <f t="shared" si="17"/>
@@ -22016,7 +22019,7 @@
         <v>793</v>
       </c>
       <c r="M488" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N488" t="str">
         <f t="shared" si="17"/>
@@ -22102,7 +22105,7 @@
         <v>775</v>
       </c>
       <c r="M490" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N490" t="str">
         <f t="shared" si="17"/>
@@ -22145,7 +22148,7 @@
         <v>783</v>
       </c>
       <c r="M491" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N491" t="str">
         <f t="shared" si="17"/>
@@ -22317,7 +22320,7 @@
         <v>770</v>
       </c>
       <c r="M495" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N495" t="str">
         <f t="shared" si="17"/>
@@ -22360,7 +22363,7 @@
         <v>779</v>
       </c>
       <c r="M496" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N496" t="str">
         <f t="shared" si="17"/>
@@ -22403,7 +22406,7 @@
         <v>19</v>
       </c>
       <c r="M497" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N497" t="str">
         <f t="shared" si="17"/>
@@ -22446,7 +22449,7 @@
         <v>794</v>
       </c>
       <c r="M498" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N498" t="str">
         <f t="shared" si="17"/>
@@ -22489,7 +22492,7 @@
         <v>783</v>
       </c>
       <c r="M499" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N499" t="str">
         <f t="shared" si="17"/>
@@ -22532,7 +22535,7 @@
         <v>771</v>
       </c>
       <c r="M500" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N500" t="str">
         <f t="shared" si="17"/>
@@ -22575,7 +22578,7 @@
         <v>795</v>
       </c>
       <c r="M501" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N501" t="str">
         <f t="shared" si="17"/>
@@ -22704,7 +22707,7 @@
         <v>18</v>
       </c>
       <c r="M504" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N504" t="str">
         <f t="shared" si="17"/>
@@ -22747,7 +22750,7 @@
         <v>775</v>
       </c>
       <c r="M505" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N505" t="str">
         <f t="shared" si="17"/>
@@ -22790,7 +22793,7 @@
         <v>773</v>
       </c>
       <c r="M506" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N506" t="str">
         <f t="shared" si="17"/>
@@ -22876,7 +22879,7 @@
         <v>19</v>
       </c>
       <c r="M508" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N508" t="str">
         <f t="shared" si="17"/>
@@ -22919,7 +22922,7 @@
         <v>779</v>
       </c>
       <c r="M509" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N509" t="str">
         <f t="shared" si="17"/>
@@ -23005,7 +23008,7 @@
         <v>776</v>
       </c>
       <c r="M511" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N511" t="str">
         <f t="shared" si="17"/>
@@ -23048,7 +23051,7 @@
         <v>770</v>
       </c>
       <c r="M512" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N512" t="str">
         <f t="shared" si="17"/>
@@ -23134,7 +23137,7 @@
         <v>795</v>
       </c>
       <c r="M514" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N514" t="str">
         <f t="shared" ref="N514:N577" si="19">_xlfn.CONCAT(I514,"_",L514)</f>
@@ -23177,7 +23180,7 @@
         <v>775</v>
       </c>
       <c r="M515" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N515" t="str">
         <f t="shared" si="19"/>
@@ -23220,7 +23223,7 @@
         <v>794</v>
       </c>
       <c r="M516" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N516" t="str">
         <f t="shared" si="19"/>
@@ -23306,7 +23309,7 @@
         <v>18</v>
       </c>
       <c r="M518" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N518" t="str">
         <f t="shared" si="19"/>
@@ -23349,7 +23352,7 @@
         <v>15</v>
       </c>
       <c r="M519" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N519" t="str">
         <f t="shared" si="19"/>
@@ -23392,7 +23395,7 @@
         <v>763</v>
       </c>
       <c r="M520" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N520" t="str">
         <f t="shared" si="19"/>
@@ -23435,7 +23438,7 @@
         <v>787</v>
       </c>
       <c r="M521" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N521" t="str">
         <f t="shared" si="19"/>
@@ -23478,7 +23481,7 @@
         <v>776</v>
       </c>
       <c r="M522" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N522" t="str">
         <f t="shared" si="19"/>
@@ -23521,7 +23524,7 @@
         <v>773</v>
       </c>
       <c r="M523" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N523" t="str">
         <f t="shared" si="19"/>
@@ -23564,7 +23567,7 @@
         <v>779</v>
       </c>
       <c r="M524" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N524" t="str">
         <f t="shared" si="19"/>
@@ -23693,7 +23696,7 @@
         <v>19</v>
       </c>
       <c r="M527" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N527" t="str">
         <f t="shared" si="19"/>
@@ -23736,7 +23739,7 @@
         <v>15</v>
       </c>
       <c r="M528" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N528" t="str">
         <f t="shared" si="19"/>
@@ -23779,7 +23782,7 @@
         <v>18</v>
       </c>
       <c r="M529" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N529" t="str">
         <f t="shared" si="19"/>
@@ -23951,7 +23954,7 @@
         <v>794</v>
       </c>
       <c r="M533" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N533" t="str">
         <f t="shared" si="19"/>
@@ -23994,7 +23997,7 @@
         <v>779</v>
       </c>
       <c r="M534" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N534" t="str">
         <f t="shared" si="19"/>
@@ -24037,7 +24040,7 @@
         <v>771</v>
       </c>
       <c r="M535" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N535" t="str">
         <f t="shared" si="19"/>
@@ -24080,7 +24083,7 @@
         <v>763</v>
       </c>
       <c r="M536" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N536" t="str">
         <f t="shared" si="19"/>
@@ -24123,7 +24126,7 @@
         <v>787</v>
       </c>
       <c r="M537" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N537" t="str">
         <f t="shared" si="19"/>
@@ -24209,7 +24212,7 @@
         <v>776</v>
       </c>
       <c r="M539" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N539" t="str">
         <f t="shared" si="19"/>
@@ -24295,7 +24298,7 @@
         <v>794</v>
       </c>
       <c r="M541" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N541" t="str">
         <f t="shared" si="19"/>
@@ -24424,7 +24427,7 @@
         <v>19</v>
       </c>
       <c r="M544" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N544" t="str">
         <f t="shared" si="19"/>
@@ -24510,7 +24513,7 @@
         <v>770</v>
       </c>
       <c r="M546" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N546" t="str">
         <f t="shared" si="19"/>
@@ -24553,7 +24556,7 @@
         <v>771</v>
       </c>
       <c r="M547" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N547" t="str">
         <f t="shared" si="19"/>
@@ -24682,7 +24685,7 @@
         <v>793</v>
       </c>
       <c r="M550" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N550" t="str">
         <f t="shared" si="19"/>
@@ -24768,7 +24771,7 @@
         <v>776</v>
       </c>
       <c r="M552" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N552" t="str">
         <f t="shared" si="19"/>
@@ -24811,7 +24814,7 @@
         <v>794</v>
       </c>
       <c r="M553" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N553" t="str">
         <f t="shared" si="19"/>
@@ -24854,7 +24857,7 @@
         <v>771</v>
       </c>
       <c r="M554" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N554" t="str">
         <f t="shared" si="19"/>
@@ -24940,7 +24943,7 @@
         <v>783</v>
       </c>
       <c r="M556" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N556" t="str">
         <f t="shared" si="19"/>
@@ -24983,7 +24986,7 @@
         <v>795</v>
       </c>
       <c r="M557" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N557" t="str">
         <f t="shared" si="19"/>
@@ -25026,7 +25029,7 @@
         <v>793</v>
       </c>
       <c r="M558" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N558" t="str">
         <f t="shared" si="19"/>
@@ -25069,7 +25072,7 @@
         <v>18</v>
       </c>
       <c r="M559" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N559" t="str">
         <f t="shared" si="19"/>
@@ -25112,7 +25115,7 @@
         <v>763</v>
       </c>
       <c r="M560" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N560" t="str">
         <f t="shared" si="19"/>
@@ -25155,7 +25158,7 @@
         <v>776</v>
       </c>
       <c r="M561" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N561" t="str">
         <f t="shared" si="19"/>
@@ -25198,7 +25201,7 @@
         <v>775</v>
       </c>
       <c r="M562" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N562" t="str">
         <f t="shared" si="19"/>
@@ -25241,7 +25244,7 @@
         <v>779</v>
       </c>
       <c r="M563" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N563" t="str">
         <f t="shared" si="19"/>
@@ -25284,7 +25287,7 @@
         <v>773</v>
       </c>
       <c r="M564" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N564" t="str">
         <f t="shared" si="19"/>
@@ -25327,7 +25330,7 @@
         <v>770</v>
       </c>
       <c r="M565" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="N565" t="str">
         <f t="shared" si="19"/>
@@ -25456,7 +25459,7 @@
         <v>787</v>
       </c>
       <c r="M568" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N568" t="str">
         <f t="shared" si="19"/>
@@ -25542,7 +25545,7 @@
         <v>794</v>
       </c>
       <c r="M570" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N570" t="str">
         <f t="shared" si="19"/>
@@ -25910,7 +25913,7 @@
         <v>782</v>
       </c>
       <c r="M578" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N578" t="str">
         <f t="shared" ref="N578:N641" si="21">_xlfn.CONCAT(I578,"_",L578)</f>
@@ -26330,7 +26333,7 @@
         <v>794</v>
       </c>
       <c r="M587" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N587" t="str">
         <f t="shared" si="21"/>
@@ -26704,7 +26707,7 @@
         <v>781</v>
       </c>
       <c r="M595" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N595" t="str">
         <f t="shared" si="21"/>
@@ -27075,7 +27078,7 @@
         <v>771</v>
       </c>
       <c r="M603" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N603" t="str">
         <f t="shared" si="21"/>
@@ -27354,7 +27357,7 @@
         <v>783</v>
       </c>
       <c r="M609" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N609" t="str">
         <f t="shared" si="21"/>
@@ -27817,7 +27820,7 @@
         <v>775</v>
       </c>
       <c r="M619" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N619" t="str">
         <f t="shared" si="21"/>
@@ -27912,7 +27915,7 @@
         <v>18</v>
       </c>
       <c r="M621" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N621" t="str">
         <f t="shared" si="21"/>
@@ -28329,7 +28332,7 @@
         <v>793</v>
       </c>
       <c r="M630" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N630" t="str">
         <f t="shared" si="21"/>
@@ -28608,7 +28611,7 @@
         <v>776</v>
       </c>
       <c r="M636" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N636" t="str">
         <f t="shared" si="21"/>
@@ -28749,7 +28752,7 @@
         <v>770</v>
       </c>
       <c r="M639" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N639" t="str">
         <f t="shared" si="21"/>
@@ -28844,7 +28847,7 @@
         <v>18</v>
       </c>
       <c r="M641" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N641" t="str">
         <f t="shared" si="21"/>
@@ -28893,7 +28896,7 @@
         <v>15</v>
       </c>
       <c r="M642" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N642" t="str">
         <f t="shared" ref="N642:N705" si="23">_xlfn.CONCAT(I642,"_",L642)</f>
@@ -29494,7 +29497,7 @@
         <v>773</v>
       </c>
       <c r="M655" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N655" t="str">
         <f t="shared" si="23"/>
@@ -29914,7 +29917,7 @@
         <v>18</v>
       </c>
       <c r="M664" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N664" t="str">
         <f t="shared" si="23"/>
@@ -30193,7 +30196,7 @@
         <v>771</v>
       </c>
       <c r="M670" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N670" t="str">
         <f t="shared" si="23"/>
@@ -30656,7 +30659,7 @@
         <v>15</v>
       </c>
       <c r="M680" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N680" t="str">
         <f t="shared" si="23"/>
@@ -31030,7 +31033,7 @@
         <v>794</v>
       </c>
       <c r="M688" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N688" t="str">
         <f t="shared" si="23"/>
@@ -31447,7 +31450,7 @@
         <v>747</v>
       </c>
       <c r="M697" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N697" t="str">
         <f t="shared" si="23"/>
@@ -32603,7 +32606,7 @@
         <v>763</v>
       </c>
       <c r="M722" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N722" t="str">
         <f t="shared" si="25"/>
@@ -32698,7 +32701,7 @@
         <v>770</v>
       </c>
       <c r="M724" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N724" t="str">
         <f t="shared" si="25"/>
@@ -33207,7 +33210,7 @@
         <v>787</v>
       </c>
       <c r="M735" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N735" t="str">
         <f t="shared" si="25"/>
@@ -33486,7 +33489,7 @@
         <v>775</v>
       </c>
       <c r="M741" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N741" t="str">
         <f t="shared" si="25"/>
@@ -33857,7 +33860,7 @@
         <v>18</v>
       </c>
       <c r="M749" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N749" t="str">
         <f t="shared" si="25"/>
@@ -34320,7 +34323,7 @@
         <v>794</v>
       </c>
       <c r="M759" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N759" t="str">
         <f t="shared" si="25"/>
@@ -34553,7 +34556,7 @@
         <v>771</v>
       </c>
       <c r="M764" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N764" t="str">
         <f t="shared" si="25"/>
@@ -34970,7 +34973,7 @@
         <v>777</v>
       </c>
       <c r="M773" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N773" t="str">
         <f t="shared" si="27"/>
@@ -35295,7 +35298,7 @@
         <v>794</v>
       </c>
       <c r="M780" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N780" t="str">
         <f t="shared" si="27"/>
@@ -35390,7 +35393,7 @@
         <v>774</v>
       </c>
       <c r="M782" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N782" t="str">
         <f t="shared" si="27"/>
@@ -35439,7 +35442,7 @@
         <v>770</v>
       </c>
       <c r="M783" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N783" t="str">
         <f t="shared" si="27"/>
@@ -35488,7 +35491,7 @@
         <v>771</v>
       </c>
       <c r="M784" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N784" t="str">
         <f t="shared" si="27"/>
@@ -35583,7 +35586,7 @@
         <v>771</v>
       </c>
       <c r="M786" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N786" t="str">
         <f t="shared" si="27"/>
@@ -36000,7 +36003,7 @@
         <v>790</v>
       </c>
       <c r="M795" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N795" t="str">
         <f t="shared" si="27"/>
@@ -36141,7 +36144,7 @@
         <v>775</v>
       </c>
       <c r="M798" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N798" t="str">
         <f t="shared" si="27"/>
@@ -36236,7 +36239,7 @@
         <v>773</v>
       </c>
       <c r="M800" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N800" t="str">
         <f t="shared" si="27"/>
@@ -36561,7 +36564,7 @@
         <v>791</v>
       </c>
       <c r="M807" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N807" t="str">
         <f t="shared" si="27"/>
@@ -36702,7 +36705,7 @@
         <v>774</v>
       </c>
       <c r="M810" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N810" t="str">
         <f t="shared" si="27"/>
@@ -36981,7 +36984,7 @@
         <v>747</v>
       </c>
       <c r="M816" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N816" t="str">
         <f t="shared" si="27"/>
@@ -37398,7 +37401,7 @@
         <v>771</v>
       </c>
       <c r="M825" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N825" t="str">
         <f t="shared" si="27"/>
@@ -37907,7 +37910,7 @@
         <v>794</v>
       </c>
       <c r="M836" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N836" t="str">
         <f t="shared" si="29"/>
@@ -38370,7 +38373,7 @@
         <v>763</v>
       </c>
       <c r="M846" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N846" t="str">
         <f t="shared" si="29"/>
@@ -38649,7 +38652,7 @@
         <v>789</v>
       </c>
       <c r="M852" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N852" t="str">
         <f t="shared" si="29"/>
@@ -38744,7 +38747,7 @@
         <v>763</v>
       </c>
       <c r="M854" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N854" t="str">
         <f t="shared" si="29"/>
@@ -38793,7 +38796,7 @@
         <v>776</v>
       </c>
       <c r="M855" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N855" t="str">
         <f t="shared" si="29"/>
@@ -38937,7 +38940,7 @@
         <v>747</v>
       </c>
       <c r="M858" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N858" t="str">
         <f t="shared" si="29"/>
@@ -39297,10 +39300,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39310,7 +39313,7 @@
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>730</v>
       </c>
@@ -39326,8 +39329,11 @@
       <c r="E1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>731</v>
       </c>
@@ -39343,8 +39349,11 @@
       <c r="E2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>732</v>
       </c>
@@ -39360,8 +39369,11 @@
       <c r="E3" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>830</v>
       </c>
@@ -39377,8 +39389,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>834</v>
       </c>
@@ -39394,8 +39409,11 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>835</v>
       </c>
@@ -39411,33 +39429,39 @@
       <c r="E6" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>839</v>
       </c>
       <c r="B7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C7" t="s">
         <v>840</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>841</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>842</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>844</v>
-      </c>
-      <c r="B8" t="s">
-        <v>845</v>
-      </c>
-      <c r="C8" t="s">
-        <v>846</v>
       </c>
       <c r="D8" t="s">
         <v>751</v>
@@ -39445,56 +39469,68 @@
       <c r="E8" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D9" t="s">
         <v>847</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>848</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>849</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E10" t="s">
         <v>850</v>
       </c>
-      <c r="E9" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>852</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C11" t="s">
+        <v>854</v>
+      </c>
+      <c r="D11" t="s">
         <v>853</v>
       </c>
-      <c r="C10" t="s">
-        <v>854</v>
-      </c>
-      <c r="D10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E10" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C11" t="s">
-        <v>857</v>
-      </c>
-      <c r="D11" t="s">
-        <v>856</v>
-      </c>
       <c r="E11" t="s">
-        <v>853</v>
+        <v>850</v>
+      </c>
+      <c r="F11" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -40461,10 +40497,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/dados/Futebol Nordestino.xlsx
+++ b/dados/Futebol Nordestino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Programming/futPE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1806" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E09AB3-9489-4824-BACD-CA9780FCDFEC}"/>
+  <xr:revisionPtr revIDLastSave="1820" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD18D68F-67EA-45D0-ACA9-F9C9B5044AF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="660">
   <si>
     <t>id_jogo</t>
   </si>
@@ -1725,18 +1725,6 @@
     <t>Oitavas de final</t>
   </si>
   <si>
-    <t>Ceara-CE</t>
-  </si>
-  <si>
-    <t>America-RN</t>
-  </si>
-  <si>
-    <t>Vitoria-BA</t>
-  </si>
-  <si>
-    <t>escudo</t>
-  </si>
-  <si>
     <t>2000-01-19</t>
   </si>
   <si>
@@ -2002,6 +1990,39 @@
   </si>
   <si>
     <t>2003-03-22</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>fortaleza-ce</t>
+  </si>
+  <si>
+    <t>ceara-ce</t>
+  </si>
+  <si>
+    <t>sampaiocorrea-ma</t>
+  </si>
+  <si>
+    <t>santacruz-pe</t>
+  </si>
+  <si>
+    <t>campinense-pb</t>
+  </si>
+  <si>
+    <t>america-rn</t>
+  </si>
+  <si>
+    <t>bahia-ba</t>
+  </si>
+  <si>
+    <t>vitoria-ba</t>
+  </si>
+  <si>
+    <t>salgueiro-pe</t>
+  </si>
+  <si>
+    <t>sport-pe</t>
   </si>
 </sst>
 </file>
@@ -2341,7 +2362,7 @@
   </sheetPr>
   <dimension ref="A1:O858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+    <sheetView topLeftCell="A188" workbookViewId="0">
       <selection activeCell="G457" sqref="G454:G457"/>
     </sheetView>
   </sheetViews>
@@ -4220,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M41" t="s">
         <v>521</v>
@@ -4255,7 +4276,7 @@
         <v>296</v>
       </c>
       <c r="I42" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -8366,7 +8387,7 @@
         <v>21</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s">
@@ -8408,7 +8429,7 @@
         <v>21</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s">
@@ -8427,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N140" t="str">
         <f t="shared" si="6"/>
@@ -8450,7 +8471,7 @@
         <v>21</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s">
@@ -8460,7 +8481,7 @@
         <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -8492,7 +8513,7 @@
         <v>21</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s">
@@ -8534,7 +8555,7 @@
         <v>21</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s">
@@ -8553,7 +8574,7 @@
         <v>2</v>
       </c>
       <c r="L143" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N143" t="str">
         <f t="shared" si="6"/>
@@ -8576,7 +8597,7 @@
         <v>21</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s">
@@ -8618,7 +8639,7 @@
         <v>21</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s">
@@ -8628,7 +8649,7 @@
         <v>27</v>
       </c>
       <c r="I145" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -8660,7 +8681,7 @@
         <v>21</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s">
@@ -8702,7 +8723,7 @@
         <v>21</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s">
@@ -8721,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="L147" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N147" t="str">
         <f t="shared" si="6"/>
@@ -8744,7 +8765,7 @@
         <v>21</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s">
@@ -8786,7 +8807,7 @@
         <v>21</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s">
@@ -8828,7 +8849,7 @@
         <v>21</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s">
@@ -8838,7 +8859,7 @@
         <v>27</v>
       </c>
       <c r="I150" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -8870,7 +8891,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s">
@@ -8880,7 +8901,7 @@
         <v>27</v>
       </c>
       <c r="I151" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8912,7 +8933,7 @@
         <v>21</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s">
@@ -8931,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N152" t="str">
         <f t="shared" si="6"/>
@@ -8954,7 +8975,7 @@
         <v>21</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s">
@@ -8996,7 +9017,7 @@
         <v>21</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s">
@@ -9006,7 +9027,7 @@
         <v>27</v>
       </c>
       <c r="I154" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J154">
         <v>2</v>
@@ -9015,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N154" t="str">
         <f t="shared" si="6"/>
@@ -9038,7 +9059,7 @@
         <v>21</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s">
@@ -9048,7 +9069,7 @@
         <v>27</v>
       </c>
       <c r="I155" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -9080,7 +9101,7 @@
         <v>21</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s">
@@ -9090,7 +9111,7 @@
         <v>27</v>
       </c>
       <c r="I156" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -9122,7 +9143,7 @@
         <v>21</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s">
@@ -9141,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="L157" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N157" t="str">
         <f t="shared" si="6"/>
@@ -9164,7 +9185,7 @@
         <v>21</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s">
@@ -9183,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N158" t="str">
         <f t="shared" si="6"/>
@@ -9206,7 +9227,7 @@
         <v>21</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s">
@@ -9248,7 +9269,7 @@
         <v>21</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s">
@@ -9258,7 +9279,7 @@
         <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -9267,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N160" t="str">
         <f t="shared" si="6"/>
@@ -9290,7 +9311,7 @@
         <v>21</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s">
@@ -9309,7 +9330,7 @@
         <v>2</v>
       </c>
       <c r="L161" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N161" t="str">
         <f t="shared" si="6"/>
@@ -9332,7 +9353,7 @@
         <v>21</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s">
@@ -9342,7 +9363,7 @@
         <v>27</v>
       </c>
       <c r="I162" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -9374,7 +9395,7 @@
         <v>21</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s">
@@ -9416,7 +9437,7 @@
         <v>21</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s">
@@ -9435,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="L164" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N164" t="str">
         <f t="shared" si="6"/>
@@ -9458,7 +9479,7 @@
         <v>21</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s">
@@ -9500,7 +9521,7 @@
         <v>21</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s">
@@ -9510,7 +9531,7 @@
         <v>27</v>
       </c>
       <c r="I166" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -9542,7 +9563,7 @@
         <v>21</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s">
@@ -9584,7 +9605,7 @@
         <v>21</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s">
@@ -9603,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N168" t="str">
         <f t="shared" si="6"/>
@@ -9626,7 +9647,7 @@
         <v>21</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s">
@@ -9668,7 +9689,7 @@
         <v>21</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s">
@@ -9678,7 +9699,7 @@
         <v>27</v>
       </c>
       <c r="I170" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -9710,7 +9731,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s">
@@ -9729,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N171" t="str">
         <f t="shared" si="6"/>
@@ -9752,7 +9773,7 @@
         <v>21</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s">
@@ -9794,7 +9815,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s">
@@ -9836,7 +9857,7 @@
         <v>21</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s">
@@ -9846,7 +9867,7 @@
         <v>27</v>
       </c>
       <c r="I174" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -9878,7 +9899,7 @@
         <v>21</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s">
@@ -9920,7 +9941,7 @@
         <v>21</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s">
@@ -9939,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N176" t="str">
         <f t="shared" si="6"/>
@@ -9962,7 +9983,7 @@
         <v>21</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s">
@@ -9972,7 +9993,7 @@
         <v>27</v>
       </c>
       <c r="I177" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -10004,7 +10025,7 @@
         <v>21</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s">
@@ -10046,7 +10067,7 @@
         <v>21</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s">
@@ -10088,7 +10109,7 @@
         <v>21</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s">
@@ -10098,7 +10119,7 @@
         <v>27</v>
       </c>
       <c r="I180" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -10130,7 +10151,7 @@
         <v>21</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s">
@@ -10172,7 +10193,7 @@
         <v>21</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s">
@@ -10191,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="L182" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N182" t="str">
         <f t="shared" si="6"/>
@@ -10214,7 +10235,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s">
@@ -10233,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N183" t="str">
         <f t="shared" si="6"/>
@@ -10256,7 +10277,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s">
@@ -10298,7 +10319,7 @@
         <v>21</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s">
@@ -10308,7 +10329,7 @@
         <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J185">
         <v>2</v>
@@ -10340,7 +10361,7 @@
         <v>21</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s">
@@ -10382,7 +10403,7 @@
         <v>21</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G187" t="s">
         <v>22</v>
@@ -10423,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G188" t="s">
         <v>22</v>
@@ -10464,7 +10485,7 @@
         <v>21</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G189" t="s">
         <v>22</v>
@@ -10505,7 +10526,7 @@
         <v>21</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G190" t="s">
         <v>22</v>
@@ -10546,7 +10567,7 @@
         <v>21</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G191" t="s">
         <v>22</v>
@@ -10587,7 +10608,7 @@
         <v>21</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G192" t="s">
         <v>22</v>
@@ -10628,7 +10649,7 @@
         <v>21</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G193" t="s">
         <v>22</v>
@@ -10637,7 +10658,7 @@
         <v>348</v>
       </c>
       <c r="I193" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J193">
         <v>2</v>
@@ -10646,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N193" t="str">
         <f>_xlfn.CONCAT(I193,"_",L193)</f>
@@ -10669,7 +10690,7 @@
         <v>21</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G194" t="s">
         <v>22</v>
@@ -10678,7 +10699,7 @@
         <v>296</v>
       </c>
       <c r="I194" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -10687,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N194" t="str">
         <f t="shared" si="9"/>
@@ -10710,7 +10731,7 @@
         <v>21</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G195" t="s">
         <v>23</v>
@@ -10719,7 +10740,7 @@
         <v>348</v>
       </c>
       <c r="I195" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -10751,7 +10772,7 @@
         <v>21</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G196" t="s">
         <v>23</v>
@@ -10769,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N196" t="str">
         <f>_xlfn.CONCAT(I196,"_",L196)</f>
@@ -10792,7 +10813,7 @@
         <v>21</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G197" t="s">
         <v>23</v>
@@ -10833,7 +10854,7 @@
         <v>21</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G198" t="s">
         <v>23</v>
@@ -10874,7 +10895,7 @@
         <v>21</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G199" t="s">
         <v>25</v>
@@ -10915,7 +10936,7 @@
         <v>21</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G200" t="s">
         <v>25</v>
@@ -10956,7 +10977,7 @@
         <v>21</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G201" t="s">
         <v>27</v>
@@ -10994,7 +11015,7 @@
         <v>21</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G202" t="s">
         <v>27</v>
@@ -11032,7 +11053,7 @@
         <v>21</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G203" t="s">
         <v>27</v>
@@ -11070,7 +11091,7 @@
         <v>21</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G204" t="s">
         <v>27</v>
@@ -11108,7 +11129,7 @@
         <v>21</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G205" t="s">
         <v>27</v>
@@ -11146,7 +11167,7 @@
         <v>21</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G206" t="s">
         <v>27</v>
@@ -11184,7 +11205,7 @@
         <v>21</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G207" t="s">
         <v>27</v>
@@ -11222,7 +11243,7 @@
         <v>21</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G208" t="s">
         <v>27</v>
@@ -11260,7 +11281,7 @@
         <v>21</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G209" t="s">
         <v>27</v>
@@ -11298,7 +11319,7 @@
         <v>21</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G210" t="s">
         <v>27</v>
@@ -11336,7 +11357,7 @@
         <v>21</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G211" t="s">
         <v>27</v>
@@ -11374,7 +11395,7 @@
         <v>21</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G212" t="s">
         <v>27</v>
@@ -11412,7 +11433,7 @@
         <v>21</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G213" t="s">
         <v>27</v>
@@ -11450,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G214" t="s">
         <v>27</v>
@@ -11488,7 +11509,7 @@
         <v>21</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G215" t="s">
         <v>27</v>
@@ -11526,7 +11547,7 @@
         <v>21</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G216" t="s">
         <v>27</v>
@@ -11564,7 +11585,7 @@
         <v>21</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G217" t="s">
         <v>27</v>
@@ -11602,7 +11623,7 @@
         <v>21</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G218" t="s">
         <v>27</v>
@@ -11640,7 +11661,7 @@
         <v>21</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G219" t="s">
         <v>27</v>
@@ -11678,7 +11699,7 @@
         <v>21</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G220" t="s">
         <v>27</v>
@@ -11716,7 +11737,7 @@
         <v>21</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G221" t="s">
         <v>27</v>
@@ -11754,7 +11775,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G222" t="s">
         <v>27</v>
@@ -11792,7 +11813,7 @@
         <v>21</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G223" t="s">
         <v>27</v>
@@ -11830,7 +11851,7 @@
         <v>21</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G224" t="s">
         <v>27</v>
@@ -11868,7 +11889,7 @@
         <v>21</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G225" t="s">
         <v>27</v>
@@ -11906,7 +11927,7 @@
         <v>21</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G226" t="s">
         <v>27</v>
@@ -11944,7 +11965,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G227" t="s">
         <v>27</v>
@@ -11982,7 +12003,7 @@
         <v>21</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G228" t="s">
         <v>27</v>
@@ -12020,7 +12041,7 @@
         <v>21</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G229" t="s">
         <v>27</v>
@@ -12058,7 +12079,7 @@
         <v>21</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G230" t="s">
         <v>27</v>
@@ -12096,7 +12117,7 @@
         <v>21</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G231" t="s">
         <v>27</v>
@@ -12134,7 +12155,7 @@
         <v>21</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G232" t="s">
         <v>27</v>
@@ -12172,7 +12193,7 @@
         <v>21</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G233" t="s">
         <v>27</v>
@@ -12210,7 +12231,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G234" t="s">
         <v>27</v>
@@ -12248,7 +12269,7 @@
         <v>21</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G235" t="s">
         <v>27</v>
@@ -12286,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G236" t="s">
         <v>27</v>
@@ -12324,7 +12345,7 @@
         <v>21</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G237" t="s">
         <v>27</v>
@@ -12362,7 +12383,7 @@
         <v>21</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G238" t="s">
         <v>27</v>
@@ -12400,7 +12421,7 @@
         <v>21</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G239" t="s">
         <v>27</v>
@@ -12438,7 +12459,7 @@
         <v>21</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G240" t="s">
         <v>27</v>
@@ -12476,7 +12497,7 @@
         <v>21</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G241" t="s">
         <v>27</v>
@@ -12514,7 +12535,7 @@
         <v>21</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G242" t="s">
         <v>27</v>
@@ -12552,7 +12573,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G243" t="s">
         <v>27</v>
@@ -12590,7 +12611,7 @@
         <v>21</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G244" t="s">
         <v>27</v>
@@ -12628,7 +12649,7 @@
         <v>21</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G245" t="s">
         <v>27</v>
@@ -12666,7 +12687,7 @@
         <v>21</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G246" t="s">
         <v>27</v>
@@ -12704,7 +12725,7 @@
         <v>21</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G247" t="s">
         <v>27</v>
@@ -12742,7 +12763,7 @@
         <v>21</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G248" t="s">
         <v>27</v>
@@ -12780,7 +12801,7 @@
         <v>21</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G249" t="s">
         <v>27</v>
@@ -12818,7 +12839,7 @@
         <v>21</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G250" t="s">
         <v>27</v>
@@ -12856,7 +12877,7 @@
         <v>21</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G251" t="s">
         <v>27</v>
@@ -12894,7 +12915,7 @@
         <v>21</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G252" t="s">
         <v>27</v>
@@ -12932,7 +12953,7 @@
         <v>21</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G253" t="s">
         <v>27</v>
@@ -12970,7 +12991,7 @@
         <v>21</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G254" t="s">
         <v>27</v>
@@ -13008,7 +13029,7 @@
         <v>21</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G255" t="s">
         <v>27</v>
@@ -13046,7 +13067,7 @@
         <v>21</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G256" t="s">
         <v>27</v>
@@ -13084,7 +13105,7 @@
         <v>21</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G257" t="s">
         <v>27</v>
@@ -13122,7 +13143,7 @@
         <v>21</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G258" t="s">
         <v>27</v>
@@ -13160,7 +13181,7 @@
         <v>21</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G259" t="s">
         <v>27</v>
@@ -13198,7 +13219,7 @@
         <v>21</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G260" t="s">
         <v>27</v>
@@ -13236,7 +13257,7 @@
         <v>21</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G261" t="s">
         <v>27</v>
@@ -13274,7 +13295,7 @@
         <v>21</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G262" t="s">
         <v>27</v>
@@ -13312,7 +13333,7 @@
         <v>21</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G263" t="s">
         <v>27</v>
@@ -13350,7 +13371,7 @@
         <v>21</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G264" t="s">
         <v>27</v>
@@ -13388,7 +13409,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G265" t="s">
         <v>27</v>
@@ -13426,7 +13447,7 @@
         <v>21</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G266" t="s">
         <v>27</v>
@@ -13464,7 +13485,7 @@
         <v>21</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G267" t="s">
         <v>27</v>
@@ -13502,7 +13523,7 @@
         <v>21</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G268" t="s">
         <v>27</v>
@@ -13540,7 +13561,7 @@
         <v>21</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G269" t="s">
         <v>27</v>
@@ -13578,7 +13599,7 @@
         <v>21</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G270" t="s">
         <v>27</v>
@@ -13616,7 +13637,7 @@
         <v>21</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G271" t="s">
         <v>27</v>
@@ -13654,7 +13675,7 @@
         <v>21</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G272" t="s">
         <v>27</v>
@@ -13692,7 +13713,7 @@
         <v>21</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G273" t="s">
         <v>27</v>
@@ -13730,7 +13751,7 @@
         <v>21</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G274" t="s">
         <v>27</v>
@@ -13768,7 +13789,7 @@
         <v>21</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G275" t="s">
         <v>27</v>
@@ -13806,7 +13827,7 @@
         <v>21</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G276" t="s">
         <v>27</v>
@@ -13844,7 +13865,7 @@
         <v>21</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G277" t="s">
         <v>27</v>
@@ -13882,7 +13903,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G278" t="s">
         <v>27</v>
@@ -13920,7 +13941,7 @@
         <v>21</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G279" t="s">
         <v>27</v>
@@ -13958,7 +13979,7 @@
         <v>21</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G280" t="s">
         <v>27</v>
@@ -13996,7 +14017,7 @@
         <v>21</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G281" t="s">
         <v>27</v>
@@ -14034,7 +14055,7 @@
         <v>21</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G282" t="s">
         <v>27</v>
@@ -14072,7 +14093,7 @@
         <v>21</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G283" t="s">
         <v>27</v>
@@ -14110,7 +14131,7 @@
         <v>21</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G284" t="s">
         <v>27</v>
@@ -14148,7 +14169,7 @@
         <v>21</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G285" t="s">
         <v>27</v>
@@ -14186,7 +14207,7 @@
         <v>21</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G286" t="s">
         <v>27</v>
@@ -14224,7 +14245,7 @@
         <v>21</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G287" t="s">
         <v>27</v>
@@ -14262,7 +14283,7 @@
         <v>21</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G288" t="s">
         <v>27</v>
@@ -14300,7 +14321,7 @@
         <v>21</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G289" t="s">
         <v>27</v>
@@ -14338,7 +14359,7 @@
         <v>21</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G290" t="s">
         <v>27</v>
@@ -14376,7 +14397,7 @@
         <v>21</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G291" t="s">
         <v>27</v>
@@ -14414,7 +14435,7 @@
         <v>21</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G292" t="s">
         <v>27</v>
@@ -14452,7 +14473,7 @@
         <v>21</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G293" t="s">
         <v>27</v>
@@ -14490,7 +14511,7 @@
         <v>21</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G294" t="s">
         <v>27</v>
@@ -14528,7 +14549,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G295" t="s">
         <v>27</v>
@@ -14566,7 +14587,7 @@
         <v>21</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G296" t="s">
         <v>27</v>
@@ -14604,7 +14625,7 @@
         <v>21</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G297" t="s">
         <v>27</v>
@@ -14642,7 +14663,7 @@
         <v>21</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G298" t="s">
         <v>27</v>
@@ -14680,7 +14701,7 @@
         <v>21</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G299" t="s">
         <v>27</v>
@@ -14718,7 +14739,7 @@
         <v>21</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G300" t="s">
         <v>27</v>
@@ -14756,7 +14777,7 @@
         <v>21</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G301" t="s">
         <v>27</v>
@@ -14794,7 +14815,7 @@
         <v>21</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G302" t="s">
         <v>27</v>
@@ -14832,7 +14853,7 @@
         <v>21</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G303" t="s">
         <v>27</v>
@@ -14870,7 +14891,7 @@
         <v>21</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G304" t="s">
         <v>27</v>
@@ -14908,7 +14929,7 @@
         <v>21</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G305" t="s">
         <v>27</v>
@@ -14946,7 +14967,7 @@
         <v>21</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G306" t="s">
         <v>27</v>
@@ -14984,7 +15005,7 @@
         <v>21</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G307" t="s">
         <v>27</v>
@@ -15022,7 +15043,7 @@
         <v>21</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G308" t="s">
         <v>27</v>
@@ -15060,7 +15081,7 @@
         <v>21</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G309" t="s">
         <v>27</v>
@@ -15098,7 +15119,7 @@
         <v>21</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G310" t="s">
         <v>27</v>
@@ -15136,7 +15157,7 @@
         <v>21</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G311" t="s">
         <v>27</v>
@@ -15174,7 +15195,7 @@
         <v>21</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G312" t="s">
         <v>27</v>
@@ -15212,7 +15233,7 @@
         <v>21</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G313" t="s">
         <v>27</v>
@@ -15250,7 +15271,7 @@
         <v>21</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G314" t="s">
         <v>27</v>
@@ -15288,7 +15309,7 @@
         <v>21</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G315" t="s">
         <v>27</v>
@@ -15326,7 +15347,7 @@
         <v>21</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G316" t="s">
         <v>27</v>
@@ -15364,7 +15385,7 @@
         <v>21</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G317" t="s">
         <v>27</v>
@@ -15402,7 +15423,7 @@
         <v>21</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G318" t="s">
         <v>27</v>
@@ -15440,7 +15461,7 @@
         <v>21</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G319" t="s">
         <v>27</v>
@@ -15478,7 +15499,7 @@
         <v>21</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G320" t="s">
         <v>27</v>
@@ -15516,7 +15537,7 @@
         <v>21</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G321" t="s">
         <v>23</v>
@@ -15557,7 +15578,7 @@
         <v>21</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G322" t="s">
         <v>23</v>
@@ -15598,7 +15619,7 @@
         <v>21</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G323" t="s">
         <v>25</v>
@@ -15639,7 +15660,7 @@
         <v>21</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G324" t="s">
         <v>27</v>
@@ -15677,7 +15698,7 @@
         <v>21</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G325" t="s">
         <v>27</v>
@@ -15715,7 +15736,7 @@
         <v>21</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G326" t="s">
         <v>27</v>
@@ -15753,7 +15774,7 @@
         <v>21</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G327" t="s">
         <v>27</v>
@@ -15791,7 +15812,7 @@
         <v>21</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G328" t="s">
         <v>27</v>
@@ -15829,7 +15850,7 @@
         <v>21</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G329" t="s">
         <v>27</v>
@@ -15867,7 +15888,7 @@
         <v>21</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G330" t="s">
         <v>27</v>
@@ -15905,7 +15926,7 @@
         <v>21</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G331" t="s">
         <v>27</v>
@@ -15943,7 +15964,7 @@
         <v>21</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G332" t="s">
         <v>27</v>
@@ -15981,7 +16002,7 @@
         <v>21</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G333" t="s">
         <v>27</v>
@@ -16019,7 +16040,7 @@
         <v>21</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G334" t="s">
         <v>27</v>
@@ -16057,7 +16078,7 @@
         <v>21</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G335" t="s">
         <v>27</v>
@@ -16095,7 +16116,7 @@
         <v>21</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G336" t="s">
         <v>27</v>
@@ -16133,7 +16154,7 @@
         <v>21</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G337" t="s">
         <v>27</v>
@@ -16171,7 +16192,7 @@
         <v>21</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G338" t="s">
         <v>27</v>
@@ -16209,7 +16230,7 @@
         <v>21</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G339" t="s">
         <v>27</v>
@@ -16247,7 +16268,7 @@
         <v>21</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G340" t="s">
         <v>27</v>
@@ -16285,7 +16306,7 @@
         <v>21</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G341" t="s">
         <v>27</v>
@@ -16323,7 +16344,7 @@
         <v>21</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G342" t="s">
         <v>27</v>
@@ -16361,7 +16382,7 @@
         <v>21</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G343" t="s">
         <v>27</v>
@@ -16399,7 +16420,7 @@
         <v>21</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G344" t="s">
         <v>27</v>
@@ -16437,7 +16458,7 @@
         <v>21</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G345" t="s">
         <v>27</v>
@@ -16475,7 +16496,7 @@
         <v>21</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G346" t="s">
         <v>27</v>
@@ -16513,7 +16534,7 @@
         <v>21</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G347" t="s">
         <v>27</v>
@@ -16551,7 +16572,7 @@
         <v>21</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G348" t="s">
         <v>27</v>
@@ -16589,7 +16610,7 @@
         <v>21</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G349" t="s">
         <v>27</v>
@@ -16627,7 +16648,7 @@
         <v>21</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G350" t="s">
         <v>27</v>
@@ -16665,7 +16686,7 @@
         <v>21</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G351" t="s">
         <v>27</v>
@@ -16703,7 +16724,7 @@
         <v>21</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G352" t="s">
         <v>27</v>
@@ -16741,7 +16762,7 @@
         <v>21</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G353" t="s">
         <v>27</v>
@@ -16779,7 +16800,7 @@
         <v>21</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G354" t="s">
         <v>27</v>
@@ -16817,7 +16838,7 @@
         <v>21</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G355" t="s">
         <v>27</v>
@@ -16855,7 +16876,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G356" t="s">
         <v>27</v>
@@ -16893,7 +16914,7 @@
         <v>21</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G357" t="s">
         <v>27</v>
@@ -16931,7 +16952,7 @@
         <v>21</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G358" t="s">
         <v>27</v>
@@ -16969,7 +16990,7 @@
         <v>21</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G359" t="s">
         <v>27</v>
@@ -17007,7 +17028,7 @@
         <v>21</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G360" t="s">
         <v>27</v>
@@ -17045,7 +17066,7 @@
         <v>21</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G361" t="s">
         <v>27</v>
@@ -17083,7 +17104,7 @@
         <v>21</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G362" t="s">
         <v>27</v>
@@ -17121,7 +17142,7 @@
         <v>21</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G363" t="s">
         <v>27</v>
@@ -17159,7 +17180,7 @@
         <v>21</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G364" t="s">
         <v>27</v>
@@ -17197,7 +17218,7 @@
         <v>21</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G365" t="s">
         <v>27</v>
@@ -17235,7 +17256,7 @@
         <v>21</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G366" t="s">
         <v>27</v>
@@ -17273,7 +17294,7 @@
         <v>21</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G367" t="s">
         <v>27</v>
@@ -17311,7 +17332,7 @@
         <v>21</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G368" t="s">
         <v>27</v>
@@ -17349,7 +17370,7 @@
         <v>21</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G369" t="s">
         <v>27</v>
@@ -17387,7 +17408,7 @@
         <v>21</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G370" t="s">
         <v>27</v>
@@ -17425,7 +17446,7 @@
         <v>21</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G371" t="s">
         <v>27</v>
@@ -17463,7 +17484,7 @@
         <v>21</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G372" t="s">
         <v>27</v>
@@ -17501,7 +17522,7 @@
         <v>21</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G373" t="s">
         <v>27</v>
@@ -17539,7 +17560,7 @@
         <v>21</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G374" t="s">
         <v>27</v>
@@ -17577,7 +17598,7 @@
         <v>21</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G375" t="s">
         <v>27</v>
@@ -17615,7 +17636,7 @@
         <v>21</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G376" t="s">
         <v>27</v>
@@ -17653,7 +17674,7 @@
         <v>21</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G377" t="s">
         <v>27</v>
@@ -17691,7 +17712,7 @@
         <v>21</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G378" t="s">
         <v>27</v>
@@ -17729,7 +17750,7 @@
         <v>21</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G379" t="s">
         <v>27</v>
@@ -17767,7 +17788,7 @@
         <v>21</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G380" t="s">
         <v>27</v>
@@ -17805,7 +17826,7 @@
         <v>21</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G381" t="s">
         <v>27</v>
@@ -17843,7 +17864,7 @@
         <v>21</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G382" t="s">
         <v>27</v>
@@ -17881,7 +17902,7 @@
         <v>21</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G383" t="s">
         <v>27</v>
@@ -17919,7 +17940,7 @@
         <v>21</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G384" t="s">
         <v>27</v>
@@ -17957,7 +17978,7 @@
         <v>21</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G385" t="s">
         <v>27</v>
@@ -17995,7 +18016,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G386" t="s">
         <v>27</v>
@@ -18033,7 +18054,7 @@
         <v>21</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G387" t="s">
         <v>27</v>
@@ -18071,7 +18092,7 @@
         <v>21</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G388" t="s">
         <v>27</v>
@@ -18109,7 +18130,7 @@
         <v>21</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G389" t="s">
         <v>27</v>
@@ -18147,7 +18168,7 @@
         <v>21</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G390" t="s">
         <v>27</v>
@@ -18185,7 +18206,7 @@
         <v>21</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G391" t="s">
         <v>27</v>
@@ -18223,7 +18244,7 @@
         <v>21</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G392" t="s">
         <v>27</v>
@@ -18261,7 +18282,7 @@
         <v>21</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G393" t="s">
         <v>27</v>
@@ -18299,7 +18320,7 @@
         <v>21</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G394" t="s">
         <v>27</v>
@@ -18337,7 +18358,7 @@
         <v>21</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G395" t="s">
         <v>27</v>
@@ -18375,7 +18396,7 @@
         <v>21</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G396" t="s">
         <v>27</v>
@@ -18413,7 +18434,7 @@
         <v>21</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G397" t="s">
         <v>27</v>
@@ -18451,7 +18472,7 @@
         <v>21</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G398" t="s">
         <v>27</v>
@@ -18489,7 +18510,7 @@
         <v>21</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G399" t="s">
         <v>27</v>
@@ -18527,7 +18548,7 @@
         <v>21</v>
       </c>
       <c r="D400" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G400" t="s">
         <v>27</v>
@@ -18565,7 +18586,7 @@
         <v>21</v>
       </c>
       <c r="D401" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G401" t="s">
         <v>27</v>
@@ -18603,7 +18624,7 @@
         <v>21</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G402" t="s">
         <v>27</v>
@@ -18641,7 +18662,7 @@
         <v>21</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G403" t="s">
         <v>27</v>
@@ -18679,7 +18700,7 @@
         <v>21</v>
       </c>
       <c r="D404" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G404" t="s">
         <v>27</v>
@@ -18717,7 +18738,7 @@
         <v>21</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G405" t="s">
         <v>27</v>
@@ -18755,7 +18776,7 @@
         <v>21</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G406" t="s">
         <v>27</v>
@@ -18793,7 +18814,7 @@
         <v>21</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G407" t="s">
         <v>27</v>
@@ -18831,7 +18852,7 @@
         <v>21</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G408" t="s">
         <v>27</v>
@@ -18869,7 +18890,7 @@
         <v>21</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G409" t="s">
         <v>27</v>
@@ -18907,7 +18928,7 @@
         <v>21</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G410" t="s">
         <v>27</v>
@@ -18945,7 +18966,7 @@
         <v>21</v>
       </c>
       <c r="D411" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G411" t="s">
         <v>27</v>
@@ -18983,7 +19004,7 @@
         <v>21</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G412" t="s">
         <v>27</v>
@@ -19021,7 +19042,7 @@
         <v>21</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G413" t="s">
         <v>27</v>
@@ -19059,7 +19080,7 @@
         <v>21</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G414" t="s">
         <v>27</v>
@@ -19097,7 +19118,7 @@
         <v>21</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G415" t="s">
         <v>27</v>
@@ -19135,7 +19156,7 @@
         <v>21</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G416" t="s">
         <v>27</v>
@@ -19173,7 +19194,7 @@
         <v>21</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G417" t="s">
         <v>27</v>
@@ -19211,7 +19232,7 @@
         <v>21</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G418" t="s">
         <v>27</v>
@@ -19249,7 +19270,7 @@
         <v>21</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G419" t="s">
         <v>27</v>
@@ -19287,7 +19308,7 @@
         <v>21</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G420" t="s">
         <v>27</v>
@@ -19325,7 +19346,7 @@
         <v>21</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G421" t="s">
         <v>27</v>
@@ -19363,7 +19384,7 @@
         <v>21</v>
       </c>
       <c r="D422" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G422" t="s">
         <v>27</v>
@@ -19401,7 +19422,7 @@
         <v>21</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G423" t="s">
         <v>27</v>
@@ -19439,7 +19460,7 @@
         <v>21</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G424" t="s">
         <v>27</v>
@@ -19477,7 +19498,7 @@
         <v>21</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G425" t="s">
         <v>27</v>
@@ -19515,7 +19536,7 @@
         <v>21</v>
       </c>
       <c r="D426" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G426" t="s">
         <v>27</v>
@@ -19553,7 +19574,7 @@
         <v>21</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G427" t="s">
         <v>27</v>
@@ -19591,7 +19612,7 @@
         <v>21</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G428" t="s">
         <v>27</v>
@@ -19629,7 +19650,7 @@
         <v>21</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G429" t="s">
         <v>27</v>
@@ -19667,7 +19688,7 @@
         <v>21</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G430" t="s">
         <v>27</v>
@@ -19705,7 +19726,7 @@
         <v>21</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G431" t="s">
         <v>27</v>
@@ -19743,7 +19764,7 @@
         <v>21</v>
       </c>
       <c r="D432" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G432" t="s">
         <v>27</v>
@@ -19781,7 +19802,7 @@
         <v>21</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G433" t="s">
         <v>27</v>
@@ -19819,7 +19840,7 @@
         <v>21</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G434" t="s">
         <v>27</v>
@@ -19857,7 +19878,7 @@
         <v>21</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G435" t="s">
         <v>27</v>
@@ -19895,7 +19916,7 @@
         <v>21</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G436" t="s">
         <v>27</v>
@@ -19933,7 +19954,7 @@
         <v>21</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G437" t="s">
         <v>27</v>
@@ -19971,7 +19992,7 @@
         <v>21</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G438" t="s">
         <v>27</v>
@@ -20009,7 +20030,7 @@
         <v>21</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G439" t="s">
         <v>27</v>
@@ -20047,7 +20068,7 @@
         <v>21</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G440" t="s">
         <v>27</v>
@@ -20085,7 +20106,7 @@
         <v>21</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G441" t="s">
         <v>27</v>
@@ -20123,7 +20144,7 @@
         <v>21</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G442" t="s">
         <v>27</v>
@@ -20161,7 +20182,7 @@
         <v>21</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G443" t="s">
         <v>27</v>
@@ -20199,7 +20220,7 @@
         <v>21</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G444" t="s">
         <v>23</v>
@@ -20240,7 +20261,7 @@
         <v>21</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G445" t="s">
         <v>23</v>
@@ -20281,7 +20302,7 @@
         <v>21</v>
       </c>
       <c r="D446" s="8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G446" t="s">
         <v>23</v>
@@ -20322,7 +20343,7 @@
         <v>21</v>
       </c>
       <c r="D447" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G447" t="s">
         <v>23</v>
@@ -20363,7 +20384,7 @@
         <v>21</v>
       </c>
       <c r="D448" s="8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G448" t="s">
         <v>25</v>
@@ -20404,7 +20425,7 @@
         <v>21</v>
       </c>
       <c r="D449" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G449" t="s">
         <v>25</v>
@@ -20445,7 +20466,7 @@
         <v>21</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G450" s="2" t="s">
         <v>27</v>
@@ -20486,7 +20507,7 @@
         <v>21</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G451" s="2" t="s">
         <v>27</v>
@@ -20527,7 +20548,7 @@
         <v>21</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G452" s="2" t="s">
         <v>27</v>
@@ -20545,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N452" t="str">
         <f t="shared" si="24"/>
@@ -20568,7 +20589,7 @@
         <v>21</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G453" s="2" t="s">
         <v>27</v>
@@ -20609,7 +20630,7 @@
         <v>21</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G454" s="4" t="s">
         <v>22</v>
@@ -20650,7 +20671,7 @@
         <v>21</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G455" s="4" t="s">
         <v>22</v>
@@ -20691,7 +20712,7 @@
         <v>21</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G456" s="4" t="s">
         <v>22</v>
@@ -20732,7 +20753,7 @@
         <v>21</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G457" s="4" t="s">
         <v>22</v>
@@ -20773,7 +20794,7 @@
         <v>21</v>
       </c>
       <c r="D458" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G458" s="2" t="s">
         <v>23</v>
@@ -20814,7 +20835,7 @@
         <v>21</v>
       </c>
       <c r="D459" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G459" s="2" t="s">
         <v>23</v>
@@ -20855,7 +20876,7 @@
         <v>21</v>
       </c>
       <c r="D460" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G460" s="2" t="s">
         <v>23</v>
@@ -20896,7 +20917,7 @@
         <v>21</v>
       </c>
       <c r="D461" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G461" s="2" t="s">
         <v>23</v>
@@ -20937,7 +20958,7 @@
         <v>21</v>
       </c>
       <c r="D462" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G462" s="2" t="s">
         <v>25</v>
@@ -20978,7 +20999,7 @@
         <v>21</v>
       </c>
       <c r="D463" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>25</v>
@@ -39348,8 +39369,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39357,6 +39378,7 @@
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -39376,7 +39398,7 @@
         <v>413</v>
       </c>
       <c r="F1" t="s">
-        <v>563</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -39396,7 +39418,7 @@
         <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>408</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -39416,7 +39438,7 @@
         <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>438</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -39436,7 +39458,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>562</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -39456,7 +39478,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -39476,7 +39498,7 @@
         <v>499</v>
       </c>
       <c r="F6" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -39496,7 +39518,7 @@
         <v>503</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -39516,7 +39538,7 @@
         <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -39536,7 +39558,7 @@
         <v>509</v>
       </c>
       <c r="F9" t="s">
-        <v>443</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -39556,7 +39578,7 @@
         <v>511</v>
       </c>
       <c r="F10" t="s">
-        <v>560</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -39576,7 +39598,7 @@
         <v>511</v>
       </c>
       <c r="F11" t="s">
-        <v>436</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -39592,9 +39614,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dados/Futebol Nordestino.xlsx
+++ b/dados/Futebol Nordestino.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Programming/futPE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4468" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1CDC77C-5709-4D46-A023-7316BCDA5DFF}"/>
+  <xr:revisionPtr revIDLastSave="4564" documentId="11_AD4D361C20488DEA4E38A06EA49F53765BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA957AA-2C10-403E-9F4A-97EB8019922D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
-    <sheet name="Campeões" sheetId="11" r:id="rId2"/>
-    <sheet name="Clubes" sheetId="12" r:id="rId3"/>
-    <sheet name="Artilharia" sheetId="13" r:id="rId4"/>
-    <sheet name="Jogadores" sheetId="14" r:id="rId5"/>
-    <sheet name="Observações" sheetId="15" r:id="rId6"/>
-    <sheet name="Posições" sheetId="18" r:id="rId7"/>
-    <sheet name="Mudanças" sheetId="16" r:id="rId8"/>
+    <sheet name="Grupos Cruzados" sheetId="19" r:id="rId2"/>
+    <sheet name="Campeões" sheetId="11" r:id="rId3"/>
+    <sheet name="Clubes" sheetId="12" r:id="rId4"/>
+    <sheet name="Artilharia" sheetId="13" r:id="rId5"/>
+    <sheet name="Jogadores" sheetId="14" r:id="rId6"/>
+    <sheet name="Observações" sheetId="15" r:id="rId7"/>
+    <sheet name="Posições" sheetId="18" r:id="rId8"/>
+    <sheet name="Mudanças" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Clubes!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clubes!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos Cruzados'!$A$1:$E$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogos!$A$1:$O$1384</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Posições!$A$1:$D$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Posições!$A$1:$D$348</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11324" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11521" uniqueCount="987">
   <si>
     <t>id_jogo</t>
   </si>
@@ -3002,6 +3004,12 @@
   </si>
   <si>
     <t>Castelão (CE)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3355,8 +3363,8 @@
   </sheetPr>
   <dimension ref="A1:O1389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66785,6 +66793,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94484F-F902-4563-8EC0-6B82F8E03025}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>985</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>985</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="s">
+        <v>985</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>986</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>986</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>986</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>986</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="s">
+        <v>986</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17" t="s">
+        <v>986</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2021</v>
+      </c>
+      <c r="C18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2021</v>
+      </c>
+      <c r="C19" t="s">
+        <v>985</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2021</v>
+      </c>
+      <c r="C20" t="s">
+        <v>985</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2021</v>
+      </c>
+      <c r="C21" t="s">
+        <v>985</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>985</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>985</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>2021</v>
+      </c>
+      <c r="C24" t="s">
+        <v>985</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25" t="s">
+        <v>985</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>2021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>2021</v>
+      </c>
+      <c r="C27" t="s">
+        <v>986</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>986</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="s">
+        <v>986</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>2021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>986</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="s">
+        <v>986</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>2021</v>
+      </c>
+      <c r="C32" t="s">
+        <v>986</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="s">
+        <v>986</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34" t="s">
+        <v>985</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35" t="s">
+        <v>985</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>2020</v>
+      </c>
+      <c r="C36" t="s">
+        <v>985</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37" t="s">
+        <v>985</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38" t="s">
+        <v>985</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39" t="s">
+        <v>985</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40" t="s">
+        <v>985</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="s">
+        <v>985</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42" t="s">
+        <v>986</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>986</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+      <c r="C44" t="s">
+        <v>986</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="s">
+        <v>986</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="s">
+        <v>986</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="s">
+        <v>986</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="s">
+        <v>986</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="s">
+        <v>986</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>2019</v>
+      </c>
+      <c r="C50" t="s">
+        <v>985</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>2019</v>
+      </c>
+      <c r="C51" t="s">
+        <v>985</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>2019</v>
+      </c>
+      <c r="C52" t="s">
+        <v>985</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>2019</v>
+      </c>
+      <c r="C53" t="s">
+        <v>985</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>2019</v>
+      </c>
+      <c r="C54" t="s">
+        <v>985</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>2019</v>
+      </c>
+      <c r="C55" t="s">
+        <v>985</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>2019</v>
+      </c>
+      <c r="C56" t="s">
+        <v>985</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <v>2019</v>
+      </c>
+      <c r="C57" t="s">
+        <v>985</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>2019</v>
+      </c>
+      <c r="C58" t="s">
+        <v>986</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>2019</v>
+      </c>
+      <c r="C59" t="s">
+        <v>986</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60">
+        <v>2019</v>
+      </c>
+      <c r="C60" t="s">
+        <v>986</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>2019</v>
+      </c>
+      <c r="C61" t="s">
+        <v>986</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>2019</v>
+      </c>
+      <c r="C62" t="s">
+        <v>986</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>2019</v>
+      </c>
+      <c r="C63" t="s">
+        <v>986</v>
+      </c>
+      <c r="D63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>2019</v>
+      </c>
+      <c r="C64" t="s">
+        <v>986</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>2019</v>
+      </c>
+      <c r="C65" t="s">
+        <v>986</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E65" xr:uid="{7A94484F-F902-4563-8EC0-6B82F8E03025}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -67115,7 +68255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -67863,7 +69003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E747CBD-78B6-4FE5-8425-F4A954E56D29}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -68706,7 +69846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6892903C-E8C5-479A-8EFA-11BF56FB442A}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -68785,7 +69925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C05F0C-FB22-4DE4-ACC5-6F3D037481F0}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -68968,7 +70108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D607A-2D3E-4C1D-A982-A1FDB1346BEB}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -73864,7 +75004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E879450-32D5-430A-B5FE-1EFBD6B8F872}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>

--- a/dados/Futebol Nordestino.xlsx
+++ b/dados/Futebol Nordestino.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Programming/NE_Dados_FC/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{12D2E210-BDCE-4478-9F21-0AF67FDFDBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF465946-0D56-4FC7-B8C6-6323ECE31C7A}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{12D2E210-BDCE-4478-9F21-0AF67FDFDBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C5BD08-A6CF-4BA9-99C2-8F8DCE107AF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13111" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13162" uniqueCount="1368">
   <si>
     <t>id_jogo</t>
   </si>
@@ -4556,8 +4556,8 @@
   </sheetPr>
   <dimension ref="A1:O1418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1394" sqref="E1394"/>
+    <sheetView tabSelected="1" topLeftCell="A1396" workbookViewId="0">
+      <selection activeCell="G1419" sqref="G1419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68148,6 +68148,9 @@
       <c r="F1385" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1385" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1385" t="s">
         <v>17</v>
       </c>
@@ -68189,6 +68192,9 @@
       <c r="F1386" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1386" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1386" t="s">
         <v>1363</v>
       </c>
@@ -68230,6 +68236,9 @@
       <c r="F1387" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1387" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1387" t="s">
         <v>1361</v>
       </c>
@@ -68271,6 +68280,9 @@
       <c r="F1388" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1388" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1388" t="s">
         <v>1362</v>
       </c>
@@ -68312,6 +68324,9 @@
       <c r="F1389" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1389" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1389" t="s">
         <v>84</v>
       </c>
@@ -68353,6 +68368,9 @@
       <c r="F1390" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1390" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1390" t="s">
         <v>17</v>
       </c>
@@ -68394,6 +68412,9 @@
       <c r="F1391" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1391" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1391" t="s">
         <v>64</v>
       </c>
@@ -68435,6 +68456,9 @@
       <c r="F1392" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1392" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1392" t="s">
         <v>1362</v>
       </c>
@@ -68476,6 +68500,9 @@
       <c r="F1393" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1393" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1393" t="s">
         <v>17</v>
       </c>
@@ -68517,6 +68544,9 @@
       <c r="F1394" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1394" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1394" t="s">
         <v>84</v>
       </c>
@@ -68558,6 +68588,9 @@
       <c r="F1395" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1395" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1395" t="s">
         <v>1362</v>
       </c>
@@ -68599,6 +68632,9 @@
       <c r="F1396" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1396" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1396" t="s">
         <v>1361</v>
       </c>
@@ -68640,6 +68676,9 @@
       <c r="F1397" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1397" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1397" t="s">
         <v>64</v>
       </c>
@@ -68681,6 +68720,9 @@
       <c r="F1398" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1398" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1398" t="s">
         <v>17</v>
       </c>
@@ -68722,6 +68764,9 @@
       <c r="F1399" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1399" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1399" t="s">
         <v>84</v>
       </c>
@@ -68763,6 +68808,9 @@
       <c r="F1400" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1400" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1400" t="s">
         <v>1364</v>
       </c>
@@ -68804,6 +68852,9 @@
       <c r="F1401" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1401" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1401" t="s">
         <v>17</v>
       </c>
@@ -68845,6 +68896,9 @@
       <c r="F1402" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1402" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1402" t="s">
         <v>1363</v>
       </c>
@@ -68886,6 +68940,9 @@
       <c r="F1403" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1403" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1403" t="s">
         <v>1361</v>
       </c>
@@ -68927,6 +68984,9 @@
       <c r="F1404" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1404" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1404" t="s">
         <v>1362</v>
       </c>
@@ -68968,6 +69028,9 @@
       <c r="F1405" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1405" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1405" t="s">
         <v>64</v>
       </c>
@@ -69009,6 +69072,9 @@
       <c r="F1406" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1406" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1406" t="s">
         <v>1364</v>
       </c>
@@ -69050,6 +69116,9 @@
       <c r="F1407" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1407" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1407" t="s">
         <v>1361</v>
       </c>
@@ -69091,6 +69160,9 @@
       <c r="F1408" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1408" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1408" t="s">
         <v>17</v>
       </c>
@@ -69132,6 +69204,9 @@
       <c r="F1409" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1409" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1409" t="s">
         <v>64</v>
       </c>
@@ -69173,6 +69248,9 @@
       <c r="F1410" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1410" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1410" t="s">
         <v>84</v>
       </c>
@@ -69214,6 +69292,9 @@
       <c r="F1411" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1411" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1411" t="s">
         <v>1362</v>
       </c>
@@ -69255,6 +69336,9 @@
       <c r="F1412" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1412" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1412" t="s">
         <v>1361</v>
       </c>
@@ -69296,6 +69380,9 @@
       <c r="F1413" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1413" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1413" t="s">
         <v>64</v>
       </c>
@@ -69337,6 +69424,9 @@
       <c r="F1414" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1414" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1414" t="s">
         <v>1361</v>
       </c>
@@ -69378,6 +69468,9 @@
       <c r="F1415" s="3" t="s">
         <v>1327</v>
       </c>
+      <c r="G1415" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1415" t="s">
         <v>84</v>
       </c>
@@ -69419,6 +69512,9 @@
       <c r="F1416" s="3" t="s">
         <v>1324</v>
       </c>
+      <c r="G1416" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I1416" t="s">
         <v>1364</v>
       </c>
@@ -69503,6 +69599,9 @@
       </c>
       <c r="G1418" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H1418" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I1418" t="s">
         <v>64</v>
@@ -71914,7 +72013,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -77476,16 +77575,16 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D348"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C348" sqref="C341:C348"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349:B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -82359,6 +82458,132 @@
       </c>
       <c r="D348">
         <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>48</v>
+      </c>
+      <c r="B349">
+        <v>1916</v>
+      </c>
+      <c r="C349" t="s">
+        <v>64</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350">
+        <v>1916</v>
+      </c>
+      <c r="C350" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>48</v>
+      </c>
+      <c r="B351">
+        <v>1916</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>48</v>
+      </c>
+      <c r="B352">
+        <v>1916</v>
+      </c>
+      <c r="C352" t="s">
+        <v>84</v>
+      </c>
+      <c r="D352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>48</v>
+      </c>
+      <c r="B353">
+        <v>1916</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>48</v>
+      </c>
+      <c r="B354">
+        <v>1916</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>48</v>
+      </c>
+      <c r="B355">
+        <v>1916</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>48</v>
+      </c>
+      <c r="B356">
+        <v>1916</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D356">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>48</v>
+      </c>
+      <c r="B357">
+        <v>1916</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D357">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
